--- a/出库/枕头的出库(更新4.15).xlsx
+++ b/出库/枕头的出库(更新4.15).xlsx
@@ -1006,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/出库/枕头的出库(更新4.15).xlsx
+++ b/出库/枕头的出库(更新4.15).xlsx
@@ -1006,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5079,7 +5079,7 @@
         <v>164</v>
       </c>
       <c r="D107" s="19">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E107" s="19">
         <v>44</v>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="D108" s="22">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="E108" s="22">
         <f t="shared" si="49"/>
